--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -678,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -865,105 +865,615 @@
     </row>
     <row r="5">
       <c r="A5" s="20" t="n">
-        <v>43908</v>
+        <v>43910</v>
       </c>
       <c r="B5" s="21" t="n">
-        <v>38.81000137329102</v>
+        <v>15.03999996185303</v>
       </c>
       <c r="C5" s="21" t="n">
-        <v>5.71999979019165</v>
+        <v>4.670000076293945</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>21.23999977111816</v>
+        <v>17.06999969482422</v>
       </c>
       <c r="E5" s="21" t="n">
-        <v>55.38000106811523</v>
+        <v>34.59999847412109</v>
       </c>
       <c r="F5" s="21" t="n">
-        <v>5.179999828338623</v>
+        <v>4.079999923706055</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>13.89999961853027</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="H5" s="21" t="n">
-        <v>100.129997253418</v>
+        <v>67.91000366210938</v>
       </c>
       <c r="I5" s="21" t="n">
-        <v>6.440000057220459</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="J5" s="21" t="n">
-        <v>8.640000343322754</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="K5" s="21" t="n">
-        <v>53.84999847412109</v>
+        <v>71</v>
       </c>
       <c r="L5" s="21" t="n">
-        <v>4.730000019073486</v>
+        <v>4.960000038146973</v>
       </c>
       <c r="M5" s="21" t="n">
-        <v>15.85000038146973</v>
+        <v>15.42000007629395</v>
       </c>
       <c r="N5" s="21" t="n">
-        <v>52.41999816894531</v>
+        <v>44.52000045776367</v>
       </c>
       <c r="O5" s="21" t="n">
-        <v>4.53000020980835</v>
+        <v>4.579999923706055</v>
       </c>
       <c r="P5" s="21" t="n">
-        <v>5.539999961853027</v>
+        <v>5.360000133514404</v>
       </c>
       <c r="Q5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="20" t="n">
-        <v>43909</v>
+        <v>43911</v>
       </c>
       <c r="B6" s="21" t="n">
-        <v>8.609999656677246</v>
+        <v>12.48999977111816</v>
       </c>
       <c r="C6" s="21" t="n">
-        <v>4.480000019073486</v>
+        <v>4.090000152587891</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>16.21999931335449</v>
+        <v>16.31999969482422</v>
       </c>
       <c r="E6" s="21" t="n">
-        <v>34.93000030517578</v>
+        <v>19.90999984741211</v>
       </c>
       <c r="F6" s="21" t="n">
-        <v>4</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>12.6899995803833</v>
+        <v>12.31999969482422</v>
       </c>
       <c r="H6" s="21" t="n">
-        <v>39.81000137329102</v>
+        <v>39.20999908447266</v>
       </c>
       <c r="I6" s="21" t="n">
-        <v>5.199999809265137</v>
+        <v>4.710000038146973</v>
       </c>
       <c r="J6" s="21" t="n">
-        <v>7.400000095367432</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="K6" s="21" t="n">
-        <v>71.95999908447266</v>
+        <v>40.88000106811523</v>
       </c>
       <c r="L6" s="21" t="n">
-        <v>5.090000152587891</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="M6" s="21" t="n">
-        <v>15.60000038146973</v>
+        <v>15.01000022888184</v>
       </c>
       <c r="N6" s="21" t="n">
-        <v>45.34000015258789</v>
+        <v>25.79999923706055</v>
       </c>
       <c r="O6" s="21" t="n">
-        <v>4.659999847412109</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="P6" s="21" t="n">
-        <v>5.510000228881836</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="Q6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="20" t="n">
+        <v>43912</v>
+      </c>
+      <c r="B7" s="21" t="n">
+        <v>3.410000085830688</v>
+      </c>
+      <c r="C7" s="21" t="n">
+        <v>3.269999980926514</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>16.27000045776367</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>4.650000095367432</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>3.069999933242798</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>9.050000190734863</v>
+      </c>
+      <c r="I7" s="21" t="n">
+        <v>3.960000038146973</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>6.369999885559082</v>
+      </c>
+      <c r="K7" s="21" t="n">
+        <v>9.560000419616699</v>
+      </c>
+      <c r="L7" s="21" t="n">
+        <v>3.940000057220459</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <v>14.43000030517578</v>
+      </c>
+      <c r="N7" s="21" t="n">
+        <v>6.010000228881836</v>
+      </c>
+      <c r="O7" s="21" t="n">
+        <v>3.779999971389771</v>
+      </c>
+      <c r="P7" s="21" t="n">
+        <v>4.760000228881836</v>
+      </c>
+      <c r="Q7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="20" t="n">
+        <v>43913</v>
+      </c>
+      <c r="B8" s="21" t="n">
+        <v>8.909999847412109</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>3.549999952316284</v>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>11.80000019073486</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>3.170000076293945</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>12.42000007629395</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>23.36000061035156</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>3.849999904632568</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>6.329999923706055</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>24.23999977111816</v>
+      </c>
+      <c r="L8" s="21" t="n">
+        <v>3.859999895095825</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <v>14.81999969482422</v>
+      </c>
+      <c r="N8" s="21" t="n">
+        <v>7.599999904632568</v>
+      </c>
+      <c r="O8" s="21" t="n">
+        <v>3.559999942779541</v>
+      </c>
+      <c r="P8" s="21" t="n">
+        <v>4.449999809265137</v>
+      </c>
+      <c r="Q8" s="1" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="20" t="n">
+        <v>43914</v>
+      </c>
+      <c r="B9" s="21" t="n">
+        <v>13.56999969482422</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>8.229999542236328</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>15.21000003814697</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>15.05000019073486</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>3.160000085830688</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>11.39999961853027</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>29.45000076293945</v>
+      </c>
+      <c r="I9" s="21" t="n">
+        <v>3.940000057220459</v>
+      </c>
+      <c r="J9" s="21" t="n">
+        <v>5.880000114440918</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>62.29000091552734</v>
+      </c>
+      <c r="L9" s="21" t="n">
+        <v>3.680000066757202</v>
+      </c>
+      <c r="M9" s="21" t="n">
+        <v>15.14999961853027</v>
+      </c>
+      <c r="N9" s="21" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="O9" s="21" t="n">
+        <v>2.460000038146973</v>
+      </c>
+      <c r="P9" s="21" t="n">
+        <v>3.170000076293945</v>
+      </c>
+      <c r="Q9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="20" t="n">
+        <v>43915</v>
+      </c>
+      <c r="B10" s="21" t="n">
+        <v>17.30999946594238</v>
+      </c>
+      <c r="C10" s="21" t="n">
+        <v>3.269999980926514</v>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>16.29000091552734</v>
+      </c>
+      <c r="E10" s="21" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>2.829999923706055</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <v>11.76000022888184</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>39.2599983215332</v>
+      </c>
+      <c r="I10" s="21" t="n">
+        <v>3.490000009536743</v>
+      </c>
+      <c r="J10" s="21" t="n">
+        <v>5.809999942779541</v>
+      </c>
+      <c r="K10" s="21" t="n">
+        <v>40.4900016784668</v>
+      </c>
+      <c r="L10" s="21" t="n">
+        <v>2.509999990463257</v>
+      </c>
+      <c r="M10" s="21" t="n">
+        <v>13.39999961853027</v>
+      </c>
+      <c r="N10" s="21" t="n">
+        <v>25.15999984741211</v>
+      </c>
+      <c r="O10" s="21" t="n">
+        <v>2.079999923706055</v>
+      </c>
+      <c r="P10" s="21" t="n">
+        <v>2.940000057220459</v>
+      </c>
+      <c r="Q10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="n">
+        <v>43916</v>
+      </c>
+      <c r="B11" s="21" t="n">
+        <v>9.510000228881836</v>
+      </c>
+      <c r="C11" s="21" t="n">
+        <v>2.599999904632568</v>
+      </c>
+      <c r="D11" s="21" t="n">
+        <v>16.39999961853027</v>
+      </c>
+      <c r="E11" s="21" t="n">
+        <v>12.46000003814697</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>2.380000114440918</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <v>11.10000038146973</v>
+      </c>
+      <c r="H11" s="21" t="n">
+        <v>24.59000015258789</v>
+      </c>
+      <c r="I11" s="21" t="n">
+        <v>2.829999923706055</v>
+      </c>
+      <c r="J11" s="21" t="n">
+        <v>5.059999942779541</v>
+      </c>
+      <c r="K11" s="21" t="n">
+        <v>27.72999954223633</v>
+      </c>
+      <c r="L11" s="21" t="n">
+        <v>2.059999942779541</v>
+      </c>
+      <c r="M11" s="21" t="n">
+        <v>12.85000038146973</v>
+      </c>
+      <c r="N11" s="21" t="n">
+        <v>17.21999931335449</v>
+      </c>
+      <c r="O11" s="21" t="n">
+        <v>1.679999947547913</v>
+      </c>
+      <c r="P11" s="21" t="n">
+        <v>2.480000019073486</v>
+      </c>
+      <c r="Q11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="20" t="n">
+        <v>43917</v>
+      </c>
+      <c r="B12" s="21" t="n">
+        <v>14.05000019073486</v>
+      </c>
+      <c r="C12" s="21" t="n">
+        <v>3.140000104904175</v>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>16.52000045776367</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>21.54999923706055</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>2.829999923706055</v>
+      </c>
+      <c r="G12" s="21" t="n">
+        <v>11</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>42.40000152587891</v>
+      </c>
+      <c r="I12" s="21" t="n">
+        <v>3.450000047683716</v>
+      </c>
+      <c r="J12" s="21" t="n">
+        <v>5.389999866485596</v>
+      </c>
+      <c r="K12" s="21" t="n">
+        <v>44.20000076293945</v>
+      </c>
+      <c r="L12" s="21" t="n">
+        <v>2.440000057220459</v>
+      </c>
+      <c r="M12" s="21" t="n">
+        <v>12.89999961853027</v>
+      </c>
+      <c r="N12" s="21" t="n">
+        <v>27.34000015258789</v>
+      </c>
+      <c r="O12" s="21" t="n">
+        <v>1.990000009536743</v>
+      </c>
+      <c r="P12" s="21" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="Q12" s="1" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="20" t="n">
+        <v>43918</v>
+      </c>
+      <c r="B13" s="21" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="C13" s="21" t="n">
+        <v>2.680000066757202</v>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>15.10999965667725</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>13.35000038146973</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>2.480000019073486</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>10.46000003814697</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>26.11000061035156</v>
+      </c>
+      <c r="I13" s="21" t="n">
+        <v>3.089999914169312</v>
+      </c>
+      <c r="J13" s="21" t="n">
+        <v>5.070000171661377</v>
+      </c>
+      <c r="K13" s="21" t="n">
+        <v>30.40999984741211</v>
+      </c>
+      <c r="L13" s="21" t="n">
+        <v>2.279999971389771</v>
+      </c>
+      <c r="M13" s="21" t="n">
+        <v>12.68000030517578</v>
+      </c>
+      <c r="N13" s="21" t="n">
+        <v>18.94000053405762</v>
+      </c>
+      <c r="O13" s="21" t="n">
+        <v>1.870000004768372</v>
+      </c>
+      <c r="P13" s="21" t="n">
+        <v>2.589999914169312</v>
+      </c>
+      <c r="Q13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="20" t="n">
+        <v>43919</v>
+      </c>
+      <c r="B14" s="21" t="n">
+        <v>1.490000009536743</v>
+      </c>
+      <c r="C14" s="21" t="n">
+        <v>1.980000019073486</v>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>15.06999969482422</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>2.410000085830688</v>
+      </c>
+      <c r="F14" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>10.39999961853027</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>4.699999809265137</v>
+      </c>
+      <c r="I14" s="21" t="n">
+        <v>2.460000038146973</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>4.789999961853027</v>
+      </c>
+      <c r="K14" s="21" t="n">
+        <v>4.940000057220459</v>
+      </c>
+      <c r="L14" s="21" t="n">
+        <v>1.779999971389771</v>
+      </c>
+      <c r="M14" s="21" t="n">
+        <v>12.27999973297119</v>
+      </c>
+      <c r="N14" s="21" t="n">
+        <v>3.069999933242798</v>
+      </c>
+      <c r="O14" s="21" t="n">
+        <v>1.490000009536743</v>
+      </c>
+      <c r="P14" s="21" t="n">
+        <v>2.460000038146973</v>
+      </c>
+      <c r="Q14" s="1" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="20" t="n">
+        <v>43920</v>
+      </c>
+      <c r="B15" s="21" t="n">
+        <v>17.18000030517578</v>
+      </c>
+      <c r="C15" s="21" t="n">
+        <v>3.039999961853027</v>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>15.72999954223633</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>2.630000114440918</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>11.10999965667725</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>32.18999862670898</v>
+      </c>
+      <c r="I15" s="21" t="n">
+        <v>2.849999904632568</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>5.389999866485596</v>
+      </c>
+      <c r="K15" s="21" t="n">
+        <v>43.70999908447266</v>
+      </c>
+      <c r="L15" s="21" t="n">
+        <v>2.099999904632568</v>
+      </c>
+      <c r="M15" s="21" t="n">
+        <v>12.89000034332275</v>
+      </c>
+      <c r="N15" s="21" t="n">
+        <v>27.03000068664551</v>
+      </c>
+      <c r="O15" s="21" t="n">
+        <v>1.629999995231628</v>
+      </c>
+      <c r="P15" s="21" t="n">
+        <v>2.599999904632568</v>
+      </c>
+      <c r="Q15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="20" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B16" s="21" t="n">
+        <v>21.04999923706055</v>
+      </c>
+      <c r="C16" s="21" t="n">
+        <v>3.609999895095825</v>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>16.19000053405762</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>28.04999923706055</v>
+      </c>
+      <c r="F16" s="21" t="n">
+        <v>3.079999923706055</v>
+      </c>
+      <c r="G16" s="21" t="n">
+        <v>11.52000045776367</v>
+      </c>
+      <c r="H16" s="21" t="n">
+        <v>55.59999847412109</v>
+      </c>
+      <c r="I16" s="21" t="n">
+        <v>3.789999961853027</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>5.849999904632568</v>
+      </c>
+      <c r="K16" s="21" t="n">
+        <v>57.68000030517578</v>
+      </c>
+      <c r="L16" s="21" t="n">
+        <v>2.769999980926514</v>
+      </c>
+      <c r="M16" s="21" t="n">
+        <v>13.18000030517578</v>
+      </c>
+      <c r="N16" s="21" t="n">
+        <v>35.90000152587891</v>
+      </c>
+      <c r="O16" s="21" t="n">
+        <v>2.269999980926514</v>
+      </c>
+      <c r="P16" s="21" t="n">
+        <v>3.009999990463257</v>
+      </c>
+      <c r="Q16" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="7">
